--- a/Student Branch and Member count.xlsx
+++ b/Student Branch and Member count.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
   <si>
     <t xml:space="preserve">Student Branch</t>
   </si>
@@ -28,9 +28,6 @@
     <t xml:space="preserve">Student Branch SPO ID</t>
   </si>
   <si>
-    <t xml:space="preserve">School Name</t>
-  </si>
-  <si>
     <t xml:space="preserve">Feb</t>
   </si>
   <si>
@@ -91,9 +88,6 @@
     <t xml:space="preserve">STB08291</t>
   </si>
   <si>
-    <t xml:space="preserve">Amrutha Institute of Eng &amp; Mgmt Sciences</t>
-  </si>
-  <si>
     <t xml:space="preserve">ATME College of Engineering</t>
   </si>
   <si>
@@ -196,18 +190,12 @@
     <t xml:space="preserve">STB00421</t>
   </si>
   <si>
-    <t xml:space="preserve">Channabasaveshwara Inst of Tech</t>
-  </si>
-  <si>
     <t xml:space="preserve">Christ University-Bangalore</t>
   </si>
   <si>
     <t xml:space="preserve">STB17341</t>
   </si>
   <si>
-    <t xml:space="preserve">Christ University, Bangalore</t>
-  </si>
-  <si>
     <t xml:space="preserve">CMR Institute of Technology-Bangalore</t>
   </si>
   <si>
@@ -250,9 +238,6 @@
     <t xml:space="preserve">STB30191</t>
   </si>
   <si>
-    <t xml:space="preserve">Dr Br Ambedkar Inst Of Tech/Bangalore Univ</t>
-  </si>
-  <si>
     <t xml:space="preserve">East Point College Of Engineering &amp; Tech</t>
   </si>
   <si>
@@ -289,9 +274,6 @@
     <t xml:space="preserve">STB62681</t>
   </si>
   <si>
-    <t xml:space="preserve">Golden Valley Inst Of Tech</t>
-  </si>
-  <si>
     <t xml:space="preserve">Government Engineering College-KR Pet</t>
   </si>
   <si>
@@ -430,9 +412,6 @@
     <t xml:space="preserve">STB36281</t>
   </si>
   <si>
-    <t xml:space="preserve">KLE Society's College Of Engrg</t>
-  </si>
-  <si>
     <t xml:space="preserve">KLE Societys Institute of Tech</t>
   </si>
   <si>
@@ -475,9 +454,6 @@
     <t xml:space="preserve">STB11443</t>
   </si>
   <si>
-    <t xml:space="preserve">M S Ramaiah University of Applied Scns -Bangalore</t>
-  </si>
-  <si>
     <t xml:space="preserve">M.S. Engineering College</t>
   </si>
   <si>
@@ -568,16 +544,10 @@
     <t xml:space="preserve">STB66131</t>
   </si>
   <si>
-    <t xml:space="preserve">New Horizon College Of Engineering</t>
-  </si>
-  <si>
     <t xml:space="preserve">NIE Institute of Technology</t>
   </si>
   <si>
     <t xml:space="preserve">STB18781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NIE Institute Of Technology</t>
   </si>
   <si>
     <t xml:space="preserve">Nitte Mahalinga Adyanthaya Mem Inst of Tech</t>
@@ -1030,24 +1000,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1048576"/>
+  <dimension ref="A1:AMJ141"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B13" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A61" activeCellId="0" sqref="A61"/>
-      <selection pane="bottomRight" activeCell="E69" activeCellId="0" sqref="E69"/>
+      <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+      <selection pane="bottomRight" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="33.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.74"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="22.6"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="4" style="0" width="13.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="23.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="13.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="23.3"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1022" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1069,45 +1038,41 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="AMJ1" s="0"/>
+    </row>
+    <row r="2" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
+      <c r="C2" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1" t="n">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>9</v>
+      <c r="C3" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1" t="n">
         <v>0</v>
@@ -1115,272 +1080,248 @@
       <c r="F3" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="AMJ3" s="0"/>
     </row>
     <row r="4" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>11</v>
+      <c r="C4" s="1" t="n">
+        <v>81</v>
       </c>
       <c r="D4" s="1" t="n">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="E4" s="1" t="n">
         <v>70</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="G4" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>13</v>
+      <c r="C5" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="n">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="E5" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G5" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AMJ5" s="0"/>
     </row>
     <row r="6" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
+      <c r="C6" s="1" t="n">
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="n">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="E6" s="1" t="n">
         <v>45</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="G6" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="AMJ7" s="0"/>
+    </row>
+    <row r="8" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="1" t="n">
-        <v>162</v>
-      </c>
-      <c r="E7" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="F7" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="G7" s="1" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="1" t="n">
         <v>19</v>
       </c>
       <c r="D8" s="1" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="G8" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AMJ9" s="0"/>
+    </row>
+    <row r="10" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
+      <c r="C10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AMJ10" s="0"/>
+    </row>
+    <row r="11" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>26</v>
+      <c r="C11" s="1" t="n">
+        <v>139</v>
       </c>
       <c r="D11" s="1" t="n">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="G11" s="1" t="n">
         <v>7</v>
       </c>
+      <c r="AMJ11" s="0"/>
     </row>
     <row r="12" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AMJ12" s="0"/>
+    </row>
+    <row r="13" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" s="2" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>30</v>
+      <c r="C13" s="1" t="n">
+        <v>122</v>
       </c>
       <c r="D13" s="1" t="n">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F13" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="G13" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="AMJ13" s="0"/>
     </row>
     <row r="14" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>80</v>
       </c>
       <c r="D14" s="1" t="n">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F14" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="G14" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="AMJ14" s="0"/>
     </row>
     <row r="15" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="D15" s="1" t="n">
         <v>20</v>
@@ -1389,21 +1330,19 @@
         <v>20</v>
       </c>
       <c r="F15" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="G15" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="AMJ15" s="0"/>
+    </row>
+    <row r="16" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>4</v>
       </c>
       <c r="D16" s="1" t="n">
         <v>4</v>
@@ -1412,44 +1351,40 @@
         <v>4</v>
       </c>
       <c r="F16" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G16" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="AMJ16" s="0"/>
+    </row>
+    <row r="17" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AMJ17" s="0"/>
+    </row>
+    <row r="18" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="1" t="n">
-        <v>292</v>
-      </c>
-      <c r="E17" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="F17" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="G17" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>40</v>
+      <c r="C18" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="D18" s="1" t="n">
         <v>14</v>
@@ -1458,251 +1393,229 @@
         <v>14</v>
       </c>
       <c r="F18" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="G18" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="AMJ18" s="0"/>
+    </row>
+    <row r="19" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AMJ19" s="0"/>
+    </row>
+    <row r="20" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D19" s="1" t="n">
+      <c r="C20" s="1" t="n">
+        <v>654</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="AMJ20" s="0"/>
+    </row>
+    <row r="21" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="E19" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="F19" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="G19" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>654</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>424</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>428</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="D21" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AMJ21" s="0"/>
+    </row>
+    <row r="22" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D21" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="E21" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="F21" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="G21" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>48</v>
+      <c r="C22" s="1" t="n">
+        <v>94</v>
       </c>
       <c r="D22" s="1" t="n">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="E22" s="1" t="n">
         <v>52</v>
       </c>
       <c r="F22" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="G22" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AMJ22" s="0"/>
     </row>
     <row r="23" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AMJ23" s="0"/>
+    </row>
+    <row r="24" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="E23" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="F23" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="G23" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>52</v>
+      <c r="C24" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="D24" s="1" t="n">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="E24" s="1" t="n">
         <v>21</v>
       </c>
       <c r="F24" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="G24" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="AMJ24" s="0"/>
+    </row>
+    <row r="25" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AMJ25" s="0"/>
+    </row>
+    <row r="26" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D25" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="E25" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="F25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="G25" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+      <c r="C26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AMJ26" s="0"/>
+    </row>
+    <row r="27" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C27" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="AMJ27" s="0"/>
+    </row>
+    <row r="28" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D27" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="E27" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="F27" s="1" t="n">
-        <v>226</v>
-      </c>
-      <c r="G27" s="1" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="28" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>62</v>
+      <c r="C28" s="1" t="n">
+        <v>97</v>
       </c>
       <c r="D28" s="1" t="n">
-        <v>97</v>
+        <v>56</v>
       </c>
       <c r="E28" s="1" t="n">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="F28" s="1" t="n">
-        <v>64</v>
-      </c>
-      <c r="G28" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AMJ28" s="0"/>
     </row>
     <row r="29" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="C29" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D29" s="1" t="n">
         <v>0</v>
@@ -1713,19 +1626,17 @@
       <c r="F29" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G29" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" s="2" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ29" s="0"/>
+    </row>
+    <row r="30" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="C30" s="1" t="n">
+        <v>81</v>
       </c>
       <c r="D30" s="1" t="n">
         <v>81</v>
@@ -1734,139 +1645,127 @@
         <v>81</v>
       </c>
       <c r="F30" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="G30" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AMJ30" s="0"/>
     </row>
     <row r="31" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="C31" s="1" t="n">
+        <v>91</v>
       </c>
       <c r="D31" s="1" t="n">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="E31" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="AMJ31" s="0"/>
+    </row>
+    <row r="32" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F31" s="1" t="n">
+      <c r="B32" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G31" s="1" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>70</v>
+      <c r="C32" s="1" t="n">
+        <v>51</v>
       </c>
       <c r="D32" s="1" t="n">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E32" s="1" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F32" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="G32" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="AMJ32" s="0"/>
     </row>
     <row r="33" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="C33" s="1" t="n">
+        <v>30</v>
       </c>
       <c r="D33" s="1" t="n">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E33" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AMJ33" s="0"/>
+    </row>
+    <row r="34" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E34" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G33" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="E34" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="F34" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G34" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AMJ34" s="0"/>
     </row>
     <row r="35" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
+      </c>
+      <c r="C35" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D35" s="1" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E35" s="1" t="n">
         <v>4</v>
       </c>
       <c r="F35" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="G35" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="AMJ35" s="0"/>
+    </row>
+    <row r="36" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
+      </c>
+      <c r="C36" s="1" t="n">
+        <v>13</v>
       </c>
       <c r="D36" s="1" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E36" s="1" t="n">
         <v>0</v>
@@ -1874,137 +1773,125 @@
       <c r="F36" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G36" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ36" s="0"/>
+    </row>
+    <row r="37" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
+      </c>
+      <c r="C37" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D37" s="1" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="E37" s="1" t="n">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="F37" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="G37" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AMJ37" s="0"/>
     </row>
     <row r="38" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
+      </c>
+      <c r="C38" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="D38" s="1" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E38" s="1" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F38" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="G38" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AMJ38" s="0"/>
     </row>
     <row r="39" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="C39" s="1" t="n">
+        <v>285</v>
       </c>
       <c r="D39" s="1" t="n">
-        <v>285</v>
+        <v>183</v>
       </c>
       <c r="E39" s="1" t="n">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="F39" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="G39" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="AMJ39" s="0"/>
     </row>
     <row r="40" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>89</v>
+        <v>83</v>
+      </c>
+      <c r="C40" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D40" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E40" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F40" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G40" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AMJ40" s="0"/>
     </row>
     <row r="41" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="C41" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="D41" s="1" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E41" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F41" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G41" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AMJ41" s="0"/>
     </row>
     <row r="42" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
+      </c>
+      <c r="C42" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D42" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E42" s="1" t="n">
         <v>0</v>
@@ -2012,19 +1899,17 @@
       <c r="F42" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G42" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ42" s="0"/>
+    </row>
+    <row r="43" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="C43" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="D43" s="1" t="n">
         <v>3</v>
@@ -2033,527 +1918,481 @@
         <v>3</v>
       </c>
       <c r="F43" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G43" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AMJ43" s="0"/>
     </row>
     <row r="44" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
+      </c>
+      <c r="C44" s="1" t="n">
+        <v>99</v>
       </c>
       <c r="D44" s="1" t="n">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="E44" s="1" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F44" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="G44" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="AMJ44" s="0"/>
     </row>
     <row r="45" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
+      </c>
+      <c r="C45" s="1" t="n">
+        <v>53</v>
       </c>
       <c r="D45" s="1" t="n">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="E45" s="1" t="n">
         <v>30</v>
       </c>
       <c r="F45" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G45" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="AMJ45" s="0"/>
     </row>
     <row r="46" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AMJ46" s="0"/>
+    </row>
+    <row r="47" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C47" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="D47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="F47" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ47" s="0"/>
+    </row>
+    <row r="48" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="D48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="F48" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ48" s="0"/>
+    </row>
+    <row r="49" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B49" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="1" t="s">
+      <c r="C49" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AMJ49" s="0"/>
+    </row>
+    <row r="50" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B50" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D47" s="1" t="n">
+      <c r="C50" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="D50" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="E50" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="F50" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="AMJ50" s="0"/>
+    </row>
+    <row r="51" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C51" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="E47" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F47" s="1" t="n">
-        <v>73</v>
-      </c>
-      <c r="G47" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D48" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="E48" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="F48" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="G48" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="1" t="s">
+      <c r="D51" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="E51" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="F51" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="AMJ51" s="0"/>
+    </row>
+    <row r="52" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="D49" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G49" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D50" s="1" t="n">
-        <v>77</v>
-      </c>
-      <c r="E50" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="F50" s="1" t="n">
-        <v>72</v>
-      </c>
-      <c r="G50" s="1" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="51" s="2" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D51" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="E51" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="F51" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="G51" s="1" t="n">
+      <c r="C52" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="D52" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="E52" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="F52" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="52" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D52" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="E52" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="F52" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="G52" s="1" t="n">
-        <v>2</v>
-      </c>
+      <c r="AMJ52" s="0"/>
     </row>
     <row r="53" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="C53" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
+      </c>
+      <c r="C53" s="1" t="n">
+        <v>11</v>
       </c>
       <c r="D53" s="1" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="E53" s="1" t="n">
         <v>7</v>
       </c>
       <c r="F53" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="G53" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AMJ53" s="0"/>
     </row>
     <row r="54" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="C54" s="1" t="n">
+        <v>175</v>
       </c>
       <c r="D54" s="1" t="n">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="E54" s="1" t="n">
         <v>84</v>
       </c>
       <c r="F54" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="G54" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="AMJ54" s="0"/>
     </row>
     <row r="55" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="C55" s="1" t="n">
+        <v>49</v>
       </c>
       <c r="D55" s="1" t="n">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="E55" s="1" t="n">
         <v>18</v>
       </c>
       <c r="F55" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="G55" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="AMJ55" s="0"/>
+    </row>
+    <row r="56" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
+      </c>
+      <c r="C56" s="1" t="n">
+        <v>145</v>
       </c>
       <c r="D56" s="1" t="n">
-        <v>145</v>
+        <v>55</v>
       </c>
       <c r="E56" s="1" t="n">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F56" s="1" t="n">
-        <v>62</v>
-      </c>
-      <c r="G56" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="57" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ56" s="0"/>
+    </row>
+    <row r="57" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
+      </c>
+      <c r="C57" s="1" t="n">
+        <v>84</v>
       </c>
       <c r="D57" s="1" t="n">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="E57" s="1" t="n">
         <v>46</v>
       </c>
       <c r="F57" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="G57" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="58" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ57" s="0"/>
+    </row>
+    <row r="58" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
+      </c>
+      <c r="C58" s="1" t="n">
+        <v>20</v>
       </c>
       <c r="D58" s="1" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E58" s="1" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F58" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="G58" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AMJ58" s="0"/>
     </row>
     <row r="59" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
+      </c>
+      <c r="C59" s="1" t="n">
+        <v>35</v>
       </c>
       <c r="D59" s="1" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E59" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F59" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G59" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AMJ59" s="0"/>
     </row>
     <row r="60" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>128</v>
+        <v>123</v>
+      </c>
+      <c r="C60" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="D60" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E60" s="1" t="n">
         <v>2</v>
       </c>
       <c r="F60" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AMJ60" s="0"/>
+    </row>
+    <row r="61" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="D61" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G60" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D61" s="1" t="n">
-        <v>6</v>
-      </c>
       <c r="E61" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F61" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G61" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AMJ61" s="0"/>
     </row>
     <row r="62" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
+      </c>
+      <c r="C62" s="1" t="n">
+        <v>62</v>
       </c>
       <c r="D62" s="1" t="n">
-        <v>62</v>
+        <v>29</v>
       </c>
       <c r="E62" s="1" t="n">
         <v>29</v>
       </c>
       <c r="F62" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="G62" s="1" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ62" s="0"/>
+    </row>
+    <row r="63" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>136</v>
+        <v>129</v>
+      </c>
+      <c r="C63" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="D63" s="1" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E63" s="1" t="n">
         <v>20</v>
       </c>
       <c r="F63" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="G63" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="AMJ63" s="0"/>
+    </row>
+    <row r="64" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>137</v>
+        <v>131</v>
+      </c>
+      <c r="C64" s="1" t="n">
+        <v>227</v>
       </c>
       <c r="D64" s="1" t="n">
-        <v>227</v>
+        <v>128</v>
       </c>
       <c r="E64" s="1" t="n">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="F64" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="G64" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" s="2" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ64" s="0"/>
+    </row>
+    <row r="65" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>139</v>
+        <v>133</v>
+      </c>
+      <c r="C65" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D65" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E65" s="1" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="F65" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="G65" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="AMJ65" s="0"/>
+    </row>
+    <row r="66" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
+      </c>
+      <c r="C66" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D66" s="1" t="n">
         <v>1</v>
@@ -2562,44 +2401,40 @@
         <v>1</v>
       </c>
       <c r="F66" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AMJ66" s="0"/>
     </row>
     <row r="67" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
+      </c>
+      <c r="C67" s="1" t="n">
+        <v>133</v>
       </c>
       <c r="D67" s="1" t="n">
-        <v>133</v>
+        <v>93</v>
       </c>
       <c r="E67" s="1" t="n">
         <v>93</v>
       </c>
       <c r="F67" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="G67" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AMJ67" s="0"/>
     </row>
     <row r="68" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
+      </c>
+      <c r="C68" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D68" s="1" t="n">
         <v>2</v>
@@ -2608,67 +2443,61 @@
         <v>2</v>
       </c>
       <c r="F68" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G68" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="AMJ68" s="0"/>
+    </row>
+    <row r="69" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D69" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" s="3" t="n">
-        <v>0</v>
+        <v>141</v>
+      </c>
+      <c r="C69" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D69" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="F69" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="G69" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AMJ69" s="0"/>
     </row>
     <row r="70" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
+      </c>
+      <c r="C70" s="1" t="n">
+        <v>28</v>
       </c>
       <c r="D70" s="1" t="n">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E70" s="1" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F70" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="G70" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AMJ70" s="0"/>
     </row>
     <row r="71" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
+      </c>
+      <c r="C71" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D71" s="1" t="n">
         <v>0</v>
@@ -2679,160 +2508,146 @@
       <c r="F71" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G71" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="AMJ71" s="0"/>
     </row>
     <row r="72" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
+      </c>
+      <c r="C72" s="1" t="n">
+        <v>169</v>
       </c>
       <c r="D72" s="1" t="n">
-        <v>169</v>
+        <v>131</v>
       </c>
       <c r="E72" s="1" t="n">
         <v>131</v>
       </c>
       <c r="F72" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="G72" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="AMJ72" s="0"/>
     </row>
     <row r="73" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
+      </c>
+      <c r="C73" s="1" t="n">
+        <v>40</v>
       </c>
       <c r="D73" s="1" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E73" s="1" t="n">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="F73" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="G73" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="AMJ73" s="0"/>
     </row>
     <row r="74" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
+      </c>
+      <c r="C74" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="D74" s="1" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E74" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F74" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="G74" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AMJ74" s="0"/>
     </row>
     <row r="75" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>160</v>
+        <v>153</v>
+      </c>
+      <c r="C75" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="D75" s="1" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E75" s="1" t="n">
         <v>13</v>
       </c>
       <c r="F75" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="G75" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="AMJ75" s="0"/>
+    </row>
+    <row r="76" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>162</v>
+        <v>155</v>
+      </c>
+      <c r="C76" s="1" t="n">
+        <v>98</v>
       </c>
       <c r="D76" s="1" t="n">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="E76" s="1" t="n">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F76" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="G76" s="1" t="n">
         <v>10</v>
       </c>
+      <c r="AMJ76" s="0"/>
     </row>
     <row r="77" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
+      </c>
+      <c r="C77" s="1" t="n">
+        <v>42</v>
       </c>
       <c r="D77" s="1" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E77" s="1" t="n">
         <v>44</v>
       </c>
       <c r="F77" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="G77" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="AMJ77" s="0"/>
+    </row>
+    <row r="78" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>166</v>
+        <v>159</v>
+      </c>
+      <c r="C78" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="D78" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E78" s="1" t="n">
         <v>0</v>
@@ -2840,571 +2655,521 @@
       <c r="F78" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G78" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ78" s="0"/>
+    </row>
+    <row r="79" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>168</v>
+        <v>161</v>
+      </c>
+      <c r="C79" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D79" s="1" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="E79" s="1" t="n">
         <v>12</v>
       </c>
       <c r="F79" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="G79" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="AMJ79" s="0"/>
+    </row>
+    <row r="80" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>170</v>
+        <v>163</v>
+      </c>
+      <c r="C80" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="D80" s="1" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E80" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" s="2" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="AMJ80" s="0"/>
+    </row>
+    <row r="81" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
+      </c>
+      <c r="C81" s="1" t="n">
+        <v>21</v>
       </c>
       <c r="D81" s="1" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E81" s="1" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F81" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="G81" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="AMJ81" s="0"/>
+    </row>
+    <row r="82" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>174</v>
+        <v>167</v>
+      </c>
+      <c r="C82" s="1" t="n">
+        <v>227</v>
       </c>
       <c r="D82" s="1" t="n">
-        <v>227</v>
+        <v>135</v>
       </c>
       <c r="E82" s="1" t="n">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="F82" s="1" t="n">
-        <v>149</v>
-      </c>
-      <c r="G82" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="AMJ82" s="0"/>
     </row>
     <row r="83" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
+      </c>
+      <c r="C83" s="1" t="n">
+        <v>631</v>
       </c>
       <c r="D83" s="1" t="n">
-        <v>631</v>
+        <v>428</v>
       </c>
       <c r="E83" s="1" t="n">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F83" s="1" t="n">
-        <v>431</v>
-      </c>
-      <c r="G83" s="1" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="84" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ83" s="0"/>
+    </row>
+    <row r="84" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>178</v>
+        <v>171</v>
+      </c>
+      <c r="C84" s="1" t="n">
+        <v>26</v>
       </c>
       <c r="D84" s="1" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E84" s="1" t="n">
         <v>18</v>
       </c>
       <c r="F84" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="G84" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="85" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="AMJ84" s="0"/>
+    </row>
+    <row r="85" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C85" s="1" t="s">
-        <v>182</v>
+        <v>173</v>
+      </c>
+      <c r="C85" s="1" t="n">
+        <v>518</v>
       </c>
       <c r="D85" s="1" t="n">
-        <v>518</v>
+        <v>193</v>
       </c>
       <c r="E85" s="1" t="n">
-        <v>193</v>
+        <v>254</v>
       </c>
       <c r="F85" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="G85" s="1" t="n">
         <v>7</v>
       </c>
-    </row>
-    <row r="86" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ85" s="0"/>
+    </row>
+    <row r="86" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="C86" s="1" t="s">
-        <v>185</v>
+        <v>175</v>
+      </c>
+      <c r="C86" s="1" t="n">
+        <v>63</v>
       </c>
       <c r="D86" s="1" t="n">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="E86" s="1" t="n">
         <v>2</v>
       </c>
       <c r="F86" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G86" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" s="2" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="AMJ86" s="0"/>
+    </row>
+    <row r="87" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>186</v>
+        <v>177</v>
+      </c>
+      <c r="C87" s="1" t="n">
+        <v>139</v>
       </c>
       <c r="D87" s="1" t="n">
-        <v>139</v>
+        <v>80</v>
       </c>
       <c r="E87" s="1" t="n">
         <v>80</v>
       </c>
       <c r="F87" s="1" t="n">
-        <v>80</v>
-      </c>
-      <c r="G87" s="1" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="88" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ87" s="0"/>
+    </row>
+    <row r="88" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="1" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>188</v>
+        <v>179</v>
+      </c>
+      <c r="C88" s="1" t="n">
+        <v>174</v>
       </c>
       <c r="D88" s="1" t="n">
-        <v>174</v>
+        <v>79</v>
       </c>
       <c r="E88" s="1" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F88" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="G88" s="1" t="n">
         <v>8</v>
       </c>
-    </row>
-    <row r="89" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ88" s="0"/>
+    </row>
+    <row r="89" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>190</v>
+        <v>181</v>
+      </c>
+      <c r="C89" s="1" t="n">
+        <v>25</v>
       </c>
       <c r="D89" s="1" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="E89" s="1" t="n">
         <v>17</v>
       </c>
       <c r="F89" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="G89" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="AMJ89" s="0"/>
     </row>
     <row r="90" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="C90" s="1" t="s">
-        <v>192</v>
+        <v>183</v>
+      </c>
+      <c r="C90" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D90" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E90" s="1" t="n">
         <v>0</v>
       </c>
       <c r="F90" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G90" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="AMJ90" s="0"/>
+    </row>
+    <row r="91" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="C91" s="1" t="s">
-        <v>194</v>
+        <v>185</v>
+      </c>
+      <c r="C91" s="1" t="n">
+        <v>32</v>
       </c>
       <c r="D91" s="1" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="E91" s="1" t="n">
         <v>7</v>
       </c>
       <c r="F91" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="G91" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="92" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ91" s="0"/>
+    </row>
+    <row r="92" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C92" s="1" t="s">
-        <v>196</v>
+        <v>187</v>
+      </c>
+      <c r="C92" s="1" t="n">
+        <v>108</v>
       </c>
       <c r="D92" s="1" t="n">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E92" s="1" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F92" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="G92" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="AMJ92" s="0"/>
+    </row>
+    <row r="93" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="C93" s="1" t="s">
-        <v>198</v>
+        <v>189</v>
+      </c>
+      <c r="C93" s="1" t="n">
+        <v>31</v>
       </c>
       <c r="D93" s="1" t="n">
         <v>31</v>
       </c>
       <c r="E93" s="1" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F93" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="G93" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="AMJ93" s="0"/>
     </row>
     <row r="94" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="C94" s="1" t="s">
-        <v>200</v>
+        <v>191</v>
+      </c>
+      <c r="C94" s="1" t="n">
+        <v>109</v>
       </c>
       <c r="D94" s="1" t="n">
-        <v>109</v>
+        <v>26</v>
       </c>
       <c r="E94" s="1" t="n">
         <v>26</v>
       </c>
       <c r="F94" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="G94" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="AMJ94" s="0"/>
+    </row>
+    <row r="95" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="C95" s="1" t="s">
-        <v>202</v>
+        <v>193</v>
+      </c>
+      <c r="C95" s="1" t="n">
+        <v>70</v>
       </c>
       <c r="D95" s="1" t="n">
-        <v>70</v>
+        <v>120</v>
       </c>
       <c r="E95" s="1" t="n">
         <v>120</v>
       </c>
       <c r="F95" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="G95" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ95" s="0"/>
+    </row>
+    <row r="96" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C96" s="1" t="s">
-        <v>204</v>
+        <v>195</v>
+      </c>
+      <c r="C96" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="D96" s="1" t="n">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="E96" s="1" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F96" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="G96" s="1" t="n">
         <v>4</v>
       </c>
-    </row>
-    <row r="97" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ96" s="0"/>
+    </row>
+    <row r="97" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C97" s="1" t="s">
-        <v>206</v>
+        <v>197</v>
+      </c>
+      <c r="C97" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D97" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E97" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F97" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G97" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AMJ97" s="0"/>
     </row>
     <row r="98" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="C98" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
+      </c>
+      <c r="C98" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D98" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E98" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F98" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G98" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="AMJ98" s="0"/>
+    </row>
+    <row r="99" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
+      </c>
+      <c r="C99" s="1" t="n">
+        <v>176</v>
       </c>
       <c r="D99" s="1" t="n">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="E99" s="1" t="n">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="F99" s="1" t="n">
-        <v>168</v>
-      </c>
-      <c r="G99" s="1" t="n">
         <v>11</v>
       </c>
+      <c r="AMJ99" s="0"/>
     </row>
     <row r="100" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
+      </c>
+      <c r="C100" s="1" t="n">
+        <v>156</v>
       </c>
       <c r="D100" s="1" t="n">
-        <v>156</v>
+        <v>83</v>
       </c>
       <c r="E100" s="1" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F100" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="G100" s="1" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="101" s="2" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ100" s="0"/>
+    </row>
+    <row r="101" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
+      </c>
+      <c r="C101" s="1" t="n">
+        <v>2</v>
       </c>
       <c r="D101" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E101" s="1" t="n">
         <v>1</v>
       </c>
       <c r="F101" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="G101" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="AMJ101" s="0"/>
     </row>
     <row r="102" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="1" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
+      </c>
+      <c r="C102" s="1" t="n">
+        <v>170</v>
       </c>
       <c r="D102" s="1" t="n">
-        <v>170</v>
+        <v>126</v>
       </c>
       <c r="E102" s="1" t="n">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="F102" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="G102" s="1" t="n">
         <v>14</v>
       </c>
+      <c r="AMJ102" s="0"/>
     </row>
     <row r="103" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="1" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="C103" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
+      </c>
+      <c r="C103" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D103" s="1" t="n">
         <v>0</v>
@@ -3415,203 +3180,185 @@
       <c r="F103" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G103" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="AMJ103" s="0"/>
     </row>
     <row r="104" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="1" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
+      </c>
+      <c r="C104" s="1" t="n">
+        <v>55</v>
       </c>
       <c r="D104" s="1" t="n">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E104" s="1" t="n">
         <v>45</v>
       </c>
       <c r="F104" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="G104" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AMJ104" s="0"/>
     </row>
     <row r="105" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="1" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C105" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
+      </c>
+      <c r="C105" s="1" t="n">
+        <v>56</v>
       </c>
       <c r="D105" s="1" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="E105" s="1" t="n">
         <v>44</v>
       </c>
       <c r="F105" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="G105" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="AMJ105" s="0"/>
+    </row>
+    <row r="106" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="1" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C106" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
+      </c>
+      <c r="C106" s="1" t="n">
+        <v>33</v>
       </c>
       <c r="D106" s="1" t="n">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E106" s="1" t="n">
         <v>21</v>
       </c>
       <c r="F106" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="G106" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AMJ106" s="0"/>
     </row>
     <row r="107" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="1" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="C107" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
+      </c>
+      <c r="C107" s="1" t="n">
+        <v>183</v>
       </c>
       <c r="D107" s="1" t="n">
-        <v>183</v>
+        <v>101</v>
       </c>
       <c r="E107" s="1" t="n">
         <v>101</v>
       </c>
       <c r="F107" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="G107" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="AMJ107" s="0"/>
+    </row>
+    <row r="108" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="1" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="C108" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
+      </c>
+      <c r="C108" s="1" t="n">
+        <v>28</v>
       </c>
       <c r="D108" s="1" t="n">
-        <v>28</v>
+        <v>328</v>
       </c>
       <c r="E108" s="1" t="n">
-        <v>328</v>
+        <v>429</v>
       </c>
       <c r="F108" s="1" t="n">
-        <v>429</v>
-      </c>
-      <c r="G108" s="1" t="n">
         <v>9</v>
       </c>
+      <c r="AMJ108" s="0"/>
     </row>
     <row r="109" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="1" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
+      </c>
+      <c r="C109" s="1" t="n">
+        <v>94</v>
       </c>
       <c r="D109" s="1" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E109" s="1" t="n">
         <v>93</v>
       </c>
       <c r="F109" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="G109" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="110" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ109" s="0"/>
+    </row>
+    <row r="110" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="1" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
+      </c>
+      <c r="C110" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="D110" s="1" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E110" s="1" t="n">
         <v>18</v>
       </c>
       <c r="F110" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="G110" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="AMJ110" s="0"/>
+    </row>
+    <row r="111" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
+      </c>
+      <c r="C111" s="1" t="n">
+        <v>84</v>
       </c>
       <c r="D111" s="1" t="n">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="E111" s="1" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F111" s="1" t="n">
-        <v>67</v>
-      </c>
-      <c r="G111" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="112" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ111" s="0"/>
+    </row>
+    <row r="112" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="1" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
+      </c>
+      <c r="C112" s="1" t="n">
+        <v>3</v>
       </c>
       <c r="D112" s="1" t="n">
         <v>3</v>
@@ -3620,67 +3367,61 @@
         <v>3</v>
       </c>
       <c r="F112" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G112" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="AMJ112" s="0"/>
+    </row>
+    <row r="113" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="1" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C113" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
+      </c>
+      <c r="C113" s="1" t="n">
+        <v>24</v>
       </c>
       <c r="D113" s="1" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E113" s="1" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F113" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="G113" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="AMJ113" s="0"/>
     </row>
     <row r="114" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="1" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="C114" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
+      </c>
+      <c r="C114" s="1" t="n">
+        <v>37</v>
       </c>
       <c r="D114" s="1" t="n">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="E114" s="1" t="n">
         <v>7</v>
       </c>
       <c r="F114" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="G114" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="AMJ114" s="0"/>
+    </row>
+    <row r="115" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="1" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
+      </c>
+      <c r="C115" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D115" s="1" t="n">
         <v>0</v>
@@ -3691,367 +3432,335 @@
       <c r="F115" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G115" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="AMJ115" s="0"/>
     </row>
     <row r="116" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="1" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
+      </c>
+      <c r="C116" s="1" t="n">
+        <v>173</v>
       </c>
       <c r="D116" s="1" t="n">
-        <v>173</v>
+        <v>92</v>
       </c>
       <c r="E116" s="1" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F116" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="G116" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="117" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ116" s="0"/>
+    </row>
+    <row r="117" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>246</v>
+        <v>237</v>
+      </c>
+      <c r="C117" s="1" t="n">
+        <v>14</v>
       </c>
       <c r="D117" s="1" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="E117" s="1" t="n">
         <v>7</v>
       </c>
       <c r="F117" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="G117" s="1" t="n">
         <v>2</v>
       </c>
-    </row>
-    <row r="118" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ117" s="0"/>
+    </row>
+    <row r="118" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>248</v>
+        <v>239</v>
+      </c>
+      <c r="C118" s="1" t="n">
+        <v>30</v>
       </c>
       <c r="D118" s="1" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="E118" s="1" t="n">
-        <v>8</v>
+        <v>33</v>
       </c>
       <c r="F118" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="G118" s="1" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1</v>
+      </c>
+      <c r="AMJ118" s="0"/>
+    </row>
+    <row r="119" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="1" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
+      </c>
+      <c r="C119" s="1" t="n">
+        <v>29</v>
       </c>
       <c r="D119" s="1" t="n">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="E119" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F119" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="G119" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AMJ119" s="0"/>
     </row>
     <row r="120" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>252</v>
+        <v>243</v>
+      </c>
+      <c r="C120" s="1" t="n">
+        <v>269</v>
       </c>
       <c r="D120" s="1" t="n">
-        <v>269</v>
+        <v>132</v>
       </c>
       <c r="E120" s="1" t="n">
         <v>132</v>
       </c>
       <c r="F120" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="G120" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="121" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ120" s="0"/>
+    </row>
+    <row r="121" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="D121" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E121" s="3" t="n">
-        <v>0</v>
+        <v>245</v>
+      </c>
+      <c r="C121" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D121" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E121" s="1" t="n">
+        <v>34</v>
       </c>
       <c r="F121" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="G121" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="AMJ121" s="0"/>
+    </row>
+    <row r="122" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
+      </c>
+      <c r="C122" s="1" t="n">
+        <v>8</v>
       </c>
       <c r="D122" s="1" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="E122" s="1" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="F122" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="G122" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AMJ122" s="0"/>
     </row>
     <row r="123" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="1" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
+      </c>
+      <c r="C123" s="1" t="n">
+        <v>7</v>
       </c>
       <c r="D123" s="1" t="n">
-        <v>7</v>
+        <v>224</v>
       </c>
       <c r="E123" s="1" t="n">
-        <v>224</v>
+        <v>262</v>
       </c>
       <c r="F123" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="G123" s="1" t="n">
         <v>2</v>
       </c>
+      <c r="AMJ123" s="0"/>
     </row>
     <row r="124" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="1" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
+      </c>
+      <c r="C124" s="1" t="n">
+        <v>18</v>
       </c>
       <c r="D124" s="1" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="E124" s="1" t="n">
         <v>5</v>
       </c>
       <c r="F124" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="G124" s="1" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="AMJ124" s="0"/>
     </row>
     <row r="125" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C125" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D125" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E125" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AMJ125" s="0"/>
+    </row>
+    <row r="126" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C126" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D126" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E126" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AMJ126" s="0"/>
+    </row>
+    <row r="127" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="C127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AMJ127" s="0"/>
+    </row>
+    <row r="128" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C128" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D128" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E128" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AMJ128" s="0"/>
+    </row>
+    <row r="129" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="C129" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AMJ129" s="0"/>
+    </row>
+    <row r="130" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B125" s="1" t="s">
+      <c r="B130" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="D125" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E125" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F125" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G125" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A126" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D126" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E126" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F126" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G126" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A127" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="C127" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="D127" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E127" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F127" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G127" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A128" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="B128" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C128" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="D128" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="E128" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F128" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G128" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A129" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="B129" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="C129" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="D129" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="E129" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="F129" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G129" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A130" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B130" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="C130" s="1" t="s">
-        <v>272</v>
+      <c r="C130" s="1" t="n">
+        <v>50</v>
       </c>
       <c r="D130" s="1" t="n">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E130" s="1" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F130" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="G130" s="1" t="n">
         <v>4</v>
       </c>
+      <c r="AMJ130" s="0"/>
     </row>
     <row r="131" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>275</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>274</v>
+        <v>265</v>
+      </c>
+      <c r="C131" s="1" t="n">
+        <v>5</v>
       </c>
       <c r="D131" s="1" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E131" s="1" t="n">
         <v>0</v>
@@ -4059,19 +3768,17 @@
       <c r="F131" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G131" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" s="2" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ131" s="0"/>
+    </row>
+    <row r="132" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="1" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
+      </c>
+      <c r="C132" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D132" s="1" t="n">
         <v>0</v>
@@ -4082,157 +3789,143 @@
       <c r="F132" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G132" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ132" s="0"/>
+    </row>
+    <row r="133" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
+      </c>
+      <c r="C133" s="1" t="n">
+        <v>17</v>
       </c>
       <c r="D133" s="1" t="n">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="E133" s="1" t="n">
         <v>42</v>
       </c>
       <c r="F133" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="G133" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ133" s="0"/>
+    </row>
+    <row r="134" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="1" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
+      </c>
+      <c r="C134" s="1" t="n">
+        <v>198</v>
       </c>
       <c r="D134" s="1" t="n">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="E134" s="1" t="n">
         <v>134</v>
       </c>
       <c r="F134" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="G134" s="1" t="n">
         <v>6</v>
       </c>
+      <c r="AMJ134" s="0"/>
     </row>
     <row r="135" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="1" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
+      </c>
+      <c r="C135" s="1" t="n">
+        <v>54</v>
       </c>
       <c r="D135" s="1" t="n">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="E135" s="1" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="F135" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="G135" s="1" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="136" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ135" s="0"/>
+    </row>
+    <row r="136" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>284</v>
+        <v>275</v>
+      </c>
+      <c r="C136" s="1" t="n">
+        <v>422</v>
       </c>
       <c r="D136" s="1" t="n">
-        <v>422</v>
+        <v>342</v>
       </c>
       <c r="E136" s="1" t="n">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F136" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="G136" s="1" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="137" s="2" customFormat="true" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ136" s="0"/>
+    </row>
+    <row r="137" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A137" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>287</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
+      </c>
+      <c r="C137" s="1" t="n">
+        <v>71</v>
       </c>
       <c r="D137" s="1" t="n">
-        <v>71</v>
+        <v>178</v>
       </c>
       <c r="E137" s="1" t="n">
-        <v>178</v>
+        <v>330</v>
       </c>
       <c r="F137" s="1" t="n">
-        <v>330</v>
-      </c>
-      <c r="G137" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="AMJ137" s="0"/>
+    </row>
+    <row r="138" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A138" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>288</v>
+        <v>279</v>
+      </c>
+      <c r="C138" s="1" t="n">
+        <v>6</v>
       </c>
       <c r="D138" s="1" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E138" s="1" t="n">
         <v>2</v>
       </c>
       <c r="F138" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="G138" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>0</v>
+      </c>
+      <c r="AMJ138" s="0"/>
+    </row>
+    <row r="139" s="2" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
+      </c>
+      <c r="C139" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D139" s="1" t="n">
         <v>0</v>
@@ -4243,19 +3936,17 @@
       <c r="F139" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G139" s="1" t="n">
-        <v>0</v>
-      </c>
+      <c r="AMJ139" s="0"/>
     </row>
     <row r="140" s="2" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="1" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
+      </c>
+      <c r="C140" s="1" t="n">
+        <v>0</v>
       </c>
       <c r="D140" s="1" t="n">
         <v>0</v>
@@ -4266,34 +3957,28 @@
       <c r="F140" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="G140" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="AMJ140" s="0"/>
+    </row>
+    <row r="141" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="C141" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
+      </c>
+      <c r="C141" s="1" t="n">
+        <v>43</v>
       </c>
       <c r="D141" s="1" t="n">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="E141" s="1" t="n">
         <v>37</v>
       </c>
       <c r="F141" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="G141" s="1" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Student Branch and Member count.xlsx
+++ b/Student Branch and Member count.xlsx
@@ -1007,7 +1007,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
-      <selection pane="bottomRight" activeCell="C13" activeCellId="0" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Student Branch and Member count.xlsx
+++ b/Student Branch and Member count.xlsx
@@ -1023,11 +1023,11 @@
   <dimension ref="A1:G1006"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E131" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A134" activeCellId="0" sqref="A134"/>
-      <selection pane="bottomRight" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A131" activeCellId="0" sqref="A131"/>
+      <selection pane="bottomRight" activeCell="C2" activeCellId="0" sqref="C2:G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1070,19 +1070,19 @@
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="n">
+      <c r="C2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="n">
+      <c r="D2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="n">
+      <c r="E2" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G2" s="2" t="n">
+      <c r="G2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1093,19 +1093,19 @@
       <c r="B3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" s="2" t="n">
+      <c r="C3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1116,19 +1116,19 @@
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="D4" s="2" t="n">
+      <c r="D4" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="E4" s="2" t="n">
+      <c r="E4" s="0" t="n">
         <v>70</v>
       </c>
-      <c r="F4" s="2" t="n">
+      <c r="F4" s="0" t="n">
         <v>69</v>
       </c>
-      <c r="G4" s="2" t="n">
+      <c r="G4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1139,19 +1139,19 @@
       <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D5" s="2" t="n">
+      <c r="D5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E5" s="2" t="n">
+      <c r="E5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F5" s="2" t="n">
+      <c r="F5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G5" s="2" t="n">
+      <c r="G5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1162,19 +1162,19 @@
       <c r="B6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="D6" s="2" t="n">
+      <c r="D6" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="E6" s="2" t="n">
+      <c r="E6" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F6" s="2" t="n">
+      <c r="F6" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="G6" s="2" t="n">
+      <c r="G6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1185,19 +1185,19 @@
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D7" s="2" t="n">
+      <c r="D7" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="E7" s="2" t="n">
+      <c r="E7" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="F7" s="2" t="n">
+      <c r="F7" s="0" t="n">
         <v>162</v>
       </c>
-      <c r="G7" s="2" t="n">
+      <c r="G7" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1208,19 +1208,19 @@
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="2" t="n">
+      <c r="C8" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D8" s="2" t="n">
+      <c r="D8" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E8" s="2" t="n">
+      <c r="E8" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F8" s="2" t="n">
+      <c r="F8" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="G8" s="2" t="n">
+      <c r="G8" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1231,19 +1231,19 @@
       <c r="B9" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2" t="n">
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1252,19 +1252,19 @@
         <v>23</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" s="2" t="n">
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="G10" s="2" t="n">
+      <c r="G10" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1275,19 +1275,19 @@
       <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" s="2" t="n">
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1298,19 +1298,19 @@
       <c r="B12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="0" t="n">
         <v>112</v>
       </c>
-      <c r="D12" s="2" t="n">
+      <c r="D12" s="0" t="n">
         <v>117</v>
       </c>
-      <c r="E12" s="2" t="n">
+      <c r="E12" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="F12" s="2" t="n">
+      <c r="F12" s="0" t="n">
         <v>124</v>
       </c>
-      <c r="G12" s="2" t="n">
+      <c r="G12" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1321,19 +1321,19 @@
       <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" s="2" t="n">
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1344,19 +1344,19 @@
       <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="D14" s="2" t="n">
+      <c r="D14" s="0" t="n">
         <v>60</v>
       </c>
-      <c r="E14" s="2" t="n">
+      <c r="E14" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="F14" s="2" t="n">
+      <c r="F14" s="0" t="n">
         <v>131</v>
       </c>
-      <c r="G14" s="2" t="n">
+      <c r="G14" s="0" t="n">
         <v>6</v>
       </c>
     </row>
@@ -1367,19 +1367,19 @@
       <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="2" t="n">
+      <c r="C15" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="D15" s="2" t="n">
+      <c r="D15" s="0" t="n">
         <v>98</v>
       </c>
-      <c r="E15" s="2" t="n">
+      <c r="E15" s="0" t="n">
         <v>111</v>
       </c>
-      <c r="F15" s="2" t="n">
+      <c r="F15" s="0" t="n">
         <v>135</v>
       </c>
-      <c r="G15" s="2" t="n">
+      <c r="G15" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1390,19 +1390,19 @@
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="2" t="n">
+      <c r="C16" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D16" s="2" t="n">
+      <c r="D16" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E16" s="2" t="n">
+      <c r="E16" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="F16" s="2" t="n">
+      <c r="F16" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G16" s="2" t="n">
+      <c r="G16" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1413,19 +1413,19 @@
       <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="2" t="n">
+      <c r="C17" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D17" s="2" t="n">
+      <c r="D17" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E17" s="2" t="n">
+      <c r="E17" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F17" s="2" t="n">
+      <c r="F17" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="G17" s="2" t="n">
+      <c r="G17" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1436,19 +1436,19 @@
       <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C18" s="2" t="n">
+      <c r="C18" s="0" t="n">
         <v>275</v>
       </c>
-      <c r="D18" s="2" t="n">
+      <c r="D18" s="0" t="n">
         <v>281</v>
       </c>
-      <c r="E18" s="2" t="n">
+      <c r="E18" s="0" t="n">
         <v>282</v>
       </c>
-      <c r="F18" s="2" t="n">
+      <c r="F18" s="0" t="n">
         <v>292</v>
       </c>
-      <c r="G18" s="2" t="n">
+      <c r="G18" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1459,19 +1459,19 @@
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="2" t="n">
+      <c r="C19" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D19" s="2" t="n">
+      <c r="D19" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E19" s="2" t="n">
+      <c r="E19" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="F19" s="2" t="n">
+      <c r="F19" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G19" s="2" t="n">
+      <c r="G19" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1482,19 +1482,19 @@
       <c r="B20" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="2" t="n">
+      <c r="C20" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="D20" s="2" t="n">
+      <c r="D20" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="E20" s="2" t="n">
+      <c r="E20" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="F20" s="2" t="n">
+      <c r="F20" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="G20" s="2" t="n">
+      <c r="G20" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1505,19 +1505,19 @@
       <c r="B21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="2" t="n">
+      <c r="C21" s="0" t="n">
         <v>412</v>
       </c>
-      <c r="D21" s="2" t="n">
+      <c r="D21" s="0" t="n">
         <v>424</v>
       </c>
-      <c r="E21" s="2" t="n">
+      <c r="E21" s="0" t="n">
         <v>428</v>
       </c>
-      <c r="F21" s="2" t="n">
+      <c r="F21" s="0" t="n">
         <v>437</v>
       </c>
-      <c r="G21" s="2" t="n">
+      <c r="G21" s="0" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1528,19 +1528,19 @@
       <c r="B22" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="2" t="n">
+      <c r="C22" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D22" s="2" t="n">
+      <c r="D22" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="E22" s="2" t="n">
+      <c r="E22" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="F22" s="2" t="n">
+      <c r="F22" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="G22" s="2" t="n">
+      <c r="G22" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1551,19 +1551,19 @@
       <c r="B23" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2" t="n">
+      <c r="C23" s="0" t="n">
         <v>51</v>
       </c>
-      <c r="D23" s="2" t="n">
+      <c r="D23" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="E23" s="2" t="n">
+      <c r="E23" s="0" t="n">
         <v>52</v>
       </c>
-      <c r="F23" s="2" t="n">
+      <c r="F23" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="G23" s="2" t="n">
+      <c r="G23" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1574,19 +1574,19 @@
       <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="2" t="n">
+      <c r="C24" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="D24" s="2" t="n">
+      <c r="D24" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E24" s="2" t="n">
+      <c r="E24" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="F24" s="2" t="n">
+      <c r="F24" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="G24" s="2" t="n">
+      <c r="G24" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1597,19 +1597,19 @@
       <c r="B25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="2" t="n">
+      <c r="C25" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D25" s="2" t="n">
+      <c r="D25" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E25" s="2" t="n">
+      <c r="E25" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="F25" s="2" t="n">
+      <c r="F25" s="0" t="n">
         <v>22</v>
       </c>
-      <c r="G25" s="2" t="n">
+      <c r="G25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1620,19 +1620,19 @@
       <c r="B26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="2" t="n">
+      <c r="C26" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="D26" s="2" t="n">
+      <c r="D26" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E26" s="2" t="n">
+      <c r="E26" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="F26" s="2" t="n">
+      <c r="F26" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="G26" s="2" t="n">
+      <c r="G26" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1643,19 +1643,19 @@
       <c r="B27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G27" s="2" t="n">
+      <c r="C27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1666,19 +1666,19 @@
       <c r="B28" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C28" s="2" t="n">
+      <c r="C28" s="0" t="n">
         <v>222</v>
       </c>
-      <c r="D28" s="2" t="n">
+      <c r="D28" s="0" t="n">
         <v>224</v>
       </c>
-      <c r="E28" s="2" t="n">
+      <c r="E28" s="0" t="n">
         <v>226</v>
       </c>
-      <c r="F28" s="2" t="n">
+      <c r="F28" s="0" t="n">
         <v>230</v>
       </c>
-      <c r="G28" s="2" t="n">
+      <c r="G28" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1689,19 +1689,19 @@
       <c r="B29" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="2" t="n">
+      <c r="C29" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="D29" s="2" t="n">
+      <c r="D29" s="0" t="n">
         <v>56</v>
       </c>
-      <c r="E29" s="2" t="n">
+      <c r="E29" s="0" t="n">
         <v>64</v>
       </c>
-      <c r="F29" s="2" t="n">
+      <c r="F29" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="G29" s="2" t="n">
+      <c r="G29" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1712,19 +1712,19 @@
       <c r="B30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" s="2" t="n">
+      <c r="C30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1735,19 +1735,19 @@
       <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="2" t="n">
+      <c r="C31" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="D31" s="2" t="n">
+      <c r="D31" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="E31" s="2" t="n">
+      <c r="E31" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="F31" s="2" t="n">
+      <c r="F31" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="G31" s="2" t="n">
+      <c r="G31" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1758,19 +1758,19 @@
       <c r="B32" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C32" s="2" t="n">
+      <c r="C32" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="D32" s="2" t="n">
+      <c r="D32" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="E32" s="2" t="n">
+      <c r="E32" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="F32" s="2" t="n">
+      <c r="F32" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="G32" s="2" t="n">
+      <c r="G32" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1781,19 +1781,19 @@
       <c r="B33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C33" s="2" t="n">
+      <c r="C33" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D33" s="2" t="n">
+      <c r="D33" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E33" s="2" t="n">
+      <c r="E33" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="F33" s="2" t="n">
+      <c r="F33" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="G33" s="2" t="n">
+      <c r="G33" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1804,19 +1804,19 @@
       <c r="B34" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D34" s="2" t="n">
+      <c r="C34" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E34" s="2" t="n">
+      <c r="E34" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F34" s="2" t="n">
+      <c r="F34" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G34" s="2" t="n">
+      <c r="G34" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1827,19 +1827,19 @@
       <c r="B35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C35" s="2" t="n">
+      <c r="C35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D35" s="2" t="n">
+      <c r="D35" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E35" s="2" t="n">
+      <c r="E35" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F35" s="2" t="n">
+      <c r="F35" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G35" s="2" t="n">
+      <c r="G35" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1850,19 +1850,19 @@
       <c r="B36" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="2" t="n">
+      <c r="C36" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D36" s="2" t="n">
+      <c r="D36" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E36" s="2" t="n">
+      <c r="E36" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="F36" s="2" t="n">
+      <c r="F36" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G36" s="2" t="n">
+      <c r="G36" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1873,19 +1873,19 @@
       <c r="B37" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" s="2" t="n">
+      <c r="C37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1896,19 +1896,19 @@
       <c r="B38" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" s="2" t="n">
+      <c r="C38" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E38" s="2" t="n">
+      <c r="E38" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="F38" s="2" t="n">
+      <c r="F38" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="G38" s="2" t="n">
+      <c r="G38" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1919,19 +1919,19 @@
       <c r="B39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C39" s="2" t="n">
+      <c r="C39" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D39" s="2" t="n">
+      <c r="D39" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E39" s="2" t="n">
+      <c r="E39" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="F39" s="2" t="n">
+      <c r="F39" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="G39" s="2" t="n">
+      <c r="G39" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -1942,19 +1942,19 @@
       <c r="B40" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="2" t="n">
+      <c r="C40" s="0" t="n">
         <v>181</v>
       </c>
-      <c r="D40" s="2" t="n">
+      <c r="D40" s="0" t="n">
         <v>183</v>
       </c>
-      <c r="E40" s="2" t="n">
+      <c r="E40" s="0" t="n">
         <v>189</v>
       </c>
-      <c r="F40" s="2" t="n">
+      <c r="F40" s="0" t="n">
         <v>190</v>
       </c>
-      <c r="G40" s="2" t="n">
+      <c r="G40" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1965,19 +1965,19 @@
       <c r="B41" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C41" s="2" t="n">
+      <c r="C41" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D41" s="2" t="n">
+      <c r="D41" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E41" s="2" t="n">
+      <c r="E41" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F41" s="2" t="n">
+      <c r="F41" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G41" s="2" t="n">
+      <c r="G41" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1988,19 +1988,19 @@
       <c r="B42" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C42" s="2" t="n">
+      <c r="C42" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D42" s="2" t="n">
+      <c r="D42" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E42" s="2" t="n">
+      <c r="E42" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="F42" s="2" t="n">
+      <c r="F42" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="G42" s="2" t="n">
+      <c r="G42" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2011,19 +2011,19 @@
       <c r="B43" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G43" s="2" t="n">
+      <c r="C43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2034,19 +2034,19 @@
       <c r="B44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="2" t="n">
+      <c r="C44" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E44" s="2" t="n">
+      <c r="E44" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F44" s="2" t="n">
+      <c r="F44" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G44" s="2" t="n">
+      <c r="G44" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2057,19 +2057,19 @@
       <c r="B45" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C45" s="2" t="n">
+      <c r="C45" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" s="0" t="n">
         <v>82</v>
       </c>
-      <c r="E45" s="2" t="n">
+      <c r="E45" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="F45" s="2" t="n">
+      <c r="F45" s="0" t="n">
         <v>87</v>
       </c>
-      <c r="G45" s="2" t="n">
+      <c r="G45" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2080,19 +2080,19 @@
       <c r="B46" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C46" s="2" t="n">
+      <c r="C46" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E46" s="2" t="n">
+      <c r="E46" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F46" s="2" t="n">
+      <c r="F46" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="G46" s="2" t="n">
+      <c r="G46" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2103,19 +2103,19 @@
       <c r="B47" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G47" s="2" t="n">
+      <c r="C47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2126,19 +2126,19 @@
       <c r="B48" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C48" s="2" t="n">
+      <c r="C48" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D48" s="2" t="n">
+      <c r="D48" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E48" s="2" t="n">
+      <c r="E48" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="F48" s="2" t="n">
+      <c r="F48" s="0" t="n">
         <v>73</v>
       </c>
-      <c r="G48" s="2" t="n">
+      <c r="G48" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2149,19 +2149,19 @@
       <c r="B49" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" s="2" t="n">
+      <c r="C49" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E49" s="2" t="n">
+      <c r="E49" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="F49" s="2" t="n">
+      <c r="F49" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="G49" s="2" t="n">
+      <c r="G49" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2172,19 +2172,19 @@
       <c r="B50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G50" s="2" t="n">
+      <c r="C50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2195,19 +2195,19 @@
       <c r="B51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="C51" s="2" t="n">
+      <c r="C51" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="D51" s="2" t="n">
+      <c r="D51" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="E51" s="2" t="n">
+      <c r="E51" s="0" t="n">
         <v>72</v>
       </c>
-      <c r="F51" s="2" t="n">
+      <c r="F51" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="G51" s="2" t="n">
+      <c r="G51" s="0" t="n">
         <v>11</v>
       </c>
     </row>
@@ -2218,19 +2218,19 @@
       <c r="B52" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="2" t="n">
+      <c r="C52" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="D52" s="2" t="n">
+      <c r="D52" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E52" s="2" t="n">
+      <c r="E52" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F52" s="2" t="n">
+      <c r="F52" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="G52" s="2" t="n">
+      <c r="G52" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2239,13 +2239,13 @@
         <v>108</v>
       </c>
       <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="2" t="n">
+      <c r="C53" s="0"/>
+      <c r="D53" s="0"/>
+      <c r="E53" s="0"/>
+      <c r="F53" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G53" s="4"/>
+      <c r="G53" s="0"/>
     </row>
     <row r="54" s="3" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="2" t="s">
@@ -2254,19 +2254,19 @@
       <c r="B54" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C54" s="2" t="n">
+      <c r="C54" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="D54" s="2" t="n">
+      <c r="D54" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="E54" s="2" t="n">
+      <c r="E54" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="F54" s="2" t="n">
+      <c r="F54" s="0" t="n">
         <v>99</v>
       </c>
-      <c r="G54" s="2" t="n">
+      <c r="G54" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2277,19 +2277,19 @@
       <c r="B55" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C55" s="2" t="n">
+      <c r="C55" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="D55" s="2" t="n">
+      <c r="D55" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E55" s="2" t="n">
+      <c r="E55" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F55" s="2" t="n">
+      <c r="F55" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G55" s="2" t="n">
+      <c r="G55" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2300,19 +2300,19 @@
       <c r="B56" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C56" s="2" t="n">
+      <c r="C56" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="D56" s="2" t="n">
+      <c r="D56" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="E56" s="2" t="n">
+      <c r="E56" s="0" t="n">
         <v>84</v>
       </c>
-      <c r="F56" s="2" t="n">
+      <c r="F56" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="G56" s="2" t="n">
+      <c r="G56" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2323,19 +2323,19 @@
       <c r="B57" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C57" s="2" t="n">
+      <c r="C57" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="D57" s="2" t="n">
+      <c r="D57" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E57" s="2" t="n">
+      <c r="E57" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F57" s="2" t="n">
+      <c r="F57" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G57" s="2" t="n">
+      <c r="G57" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2346,19 +2346,19 @@
       <c r="B58" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C58" s="2" t="n">
+      <c r="C58" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="D58" s="2" t="n">
+      <c r="D58" s="0" t="n">
         <v>55</v>
       </c>
-      <c r="E58" s="2" t="n">
+      <c r="E58" s="0" t="n">
         <v>62</v>
       </c>
-      <c r="F58" s="2" t="n">
+      <c r="F58" s="0" t="n">
         <v>65</v>
       </c>
-      <c r="G58" s="2" t="n">
+      <c r="G58" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2369,19 +2369,19 @@
       <c r="B59" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C59" s="2" t="n">
+      <c r="C59" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="D59" s="2" t="n">
+      <c r="D59" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="E59" s="2" t="n">
+      <c r="E59" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="F59" s="2" t="n">
+      <c r="F59" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="G59" s="2" t="n">
+      <c r="G59" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2392,19 +2392,19 @@
       <c r="B60" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C60" s="2" t="n">
+      <c r="C60" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="D60" s="2" t="n">
+      <c r="D60" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E60" s="2" t="n">
+      <c r="E60" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="F60" s="2" t="n">
+      <c r="F60" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G60" s="2" t="n">
+      <c r="G60" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2415,19 +2415,19 @@
       <c r="B61" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G61" s="2" t="n">
+      <c r="C61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G61" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2438,19 +2438,19 @@
       <c r="B62" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C62" s="2" t="n">
+      <c r="C62" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D62" s="2" t="n">
+      <c r="D62" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E62" s="2" t="n">
+      <c r="E62" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F62" s="2" t="n">
+      <c r="F62" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G62" s="2" t="n">
+      <c r="G62" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2461,19 +2461,19 @@
       <c r="B63" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="2" t="n">
+      <c r="C63" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D63" s="2" t="n">
+      <c r="D63" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E63" s="2" t="n">
+      <c r="E63" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F63" s="2" t="n">
+      <c r="F63" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G63" s="2" t="n">
+      <c r="G63" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2484,19 +2484,19 @@
       <c r="B64" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="2" t="n">
+      <c r="C64" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="D64" s="2" t="n">
+      <c r="D64" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E64" s="2" t="n">
+      <c r="E64" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="F64" s="2" t="n">
+      <c r="F64" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="G64" s="2" t="n">
+      <c r="G64" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2507,19 +2507,19 @@
       <c r="B65" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C65" s="2" t="n">
+      <c r="C65" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="D65" s="2" t="n">
+      <c r="D65" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E65" s="2" t="n">
+      <c r="E65" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="F65" s="2" t="n">
+      <c r="F65" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G65" s="2" t="n">
+      <c r="G65" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2530,19 +2530,19 @@
       <c r="B66" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C66" s="2" t="n">
+      <c r="C66" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D66" s="2" t="n">
+      <c r="D66" s="0" t="n">
         <v>128</v>
       </c>
-      <c r="E66" s="2" t="n">
+      <c r="E66" s="0" t="n">
         <v>141</v>
       </c>
-      <c r="F66" s="2" t="n">
+      <c r="F66" s="0" t="n">
         <v>149</v>
       </c>
-      <c r="G66" s="2" t="n">
+      <c r="G66" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -2553,19 +2553,19 @@
       <c r="B67" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" s="2" t="n">
+      <c r="C67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D67" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="F67" s="2" t="n">
+      <c r="F67" s="0" t="n">
         <v>19</v>
       </c>
-      <c r="G67" s="2" t="n">
+      <c r="G67" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2576,19 +2576,19 @@
       <c r="B68" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C68" s="2" t="n">
+      <c r="C68" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D68" s="2" t="n">
+      <c r="D68" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E68" s="2" t="n">
+      <c r="E68" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F68" s="2" t="n">
+      <c r="F68" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G68" s="2" t="n">
+      <c r="G68" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2599,19 +2599,19 @@
       <c r="B69" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C69" s="2" t="n">
+      <c r="C69" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="D69" s="2" t="n">
+      <c r="D69" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="E69" s="2" t="n">
+      <c r="E69" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="F69" s="2" t="n">
+      <c r="F69" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="G69" s="2" t="n">
+      <c r="G69" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2622,19 +2622,19 @@
       <c r="B70" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C70" s="2" t="n">
+      <c r="C70" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D70" s="2" t="n">
+      <c r="D70" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E70" s="2" t="n">
+      <c r="E70" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F70" s="2" t="n">
+      <c r="F70" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G70" s="2" t="n">
+      <c r="G70" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2645,15 +2645,15 @@
       <c r="B71" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4"/>
-      <c r="E71" s="2" t="n">
+      <c r="C71" s="0"/>
+      <c r="D71" s="0"/>
+      <c r="E71" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="F71" s="2" t="n">
+      <c r="F71" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G71" s="2" t="n">
+      <c r="G71" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2664,19 +2664,19 @@
       <c r="B72" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C72" s="2" t="n">
+      <c r="C72" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D72" s="2" t="n">
+      <c r="D72" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E72" s="2" t="n">
+      <c r="E72" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="F72" s="2" t="n">
+      <c r="F72" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="G72" s="2" t="n">
+      <c r="G72" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2687,19 +2687,19 @@
       <c r="B73" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C73" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D73" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E73" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F73" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G73" s="2" t="n">
+      <c r="C73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G73" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2710,19 +2710,19 @@
       <c r="B74" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C74" s="2" t="n">
+      <c r="C74" s="0" t="n">
         <v>131</v>
       </c>
-      <c r="D74" s="2" t="n">
+      <c r="D74" s="0" t="n">
         <v>131</v>
       </c>
-      <c r="E74" s="2" t="n">
+      <c r="E74" s="0" t="n">
         <v>131</v>
       </c>
-      <c r="F74" s="2" t="n">
+      <c r="F74" s="0" t="n">
         <v>131</v>
       </c>
-      <c r="G74" s="2" t="n">
+      <c r="G74" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -2731,19 +2731,19 @@
         <v>151</v>
       </c>
       <c r="B75" s="4"/>
-      <c r="C75" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D75" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E75" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F75" s="2" t="n">
+      <c r="C75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G75" s="2" t="n">
+      <c r="G75" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2754,19 +2754,19 @@
       <c r="B76" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C76" s="2" t="n">
+      <c r="C76" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="D76" s="2" t="n">
+      <c r="D76" s="0" t="n">
         <v>10</v>
       </c>
-      <c r="E76" s="2" t="n">
+      <c r="E76" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="F76" s="2" t="n">
+      <c r="F76" s="0" t="n">
         <v>50</v>
       </c>
-      <c r="G76" s="2" t="n">
+      <c r="G76" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -2777,19 +2777,19 @@
       <c r="B77" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C77" s="2" t="n">
+      <c r="C77" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D77" s="2" t="n">
+      <c r="D77" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E77" s="2" t="n">
+      <c r="E77" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="F77" s="2" t="n">
+      <c r="F77" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G77" s="2" t="n">
+      <c r="G77" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2800,19 +2800,19 @@
       <c r="B78" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C78" s="2" t="n">
+      <c r="C78" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E78" s="2" t="n">
+      <c r="E78" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="F78" s="2" t="n">
+      <c r="F78" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G78" s="2" t="n">
+      <c r="G78" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2823,19 +2823,19 @@
       <c r="B79" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C79" s="2" t="n">
+      <c r="C79" s="0" t="n">
         <v>47</v>
       </c>
-      <c r="D79" s="2" t="n">
+      <c r="D79" s="0" t="n">
         <v>57</v>
       </c>
-      <c r="E79" s="2" t="n">
+      <c r="E79" s="0" t="n">
         <v>63</v>
       </c>
-      <c r="F79" s="2" t="n">
+      <c r="F79" s="0" t="n">
         <v>113</v>
       </c>
-      <c r="G79" s="2" t="n">
+      <c r="G79" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -2846,19 +2846,19 @@
       <c r="B80" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C80" s="2" t="n">
+      <c r="C80" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="D80" s="2" t="n">
+      <c r="D80" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="E80" s="2" t="n">
+      <c r="E80" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="F80" s="2" t="n">
+      <c r="F80" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="G80" s="2" t="n">
+      <c r="G80" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2869,19 +2869,19 @@
       <c r="B81" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C81" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D81" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E81" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F81" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G81" s="2" t="n">
+      <c r="C81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G81" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2892,19 +2892,19 @@
       <c r="B82" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C82" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D82" s="2" t="n">
+      <c r="C82" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D82" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E82" s="2" t="n">
+      <c r="E82" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="F82" s="2" t="n">
+      <c r="F82" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="G82" s="2" t="n">
+      <c r="G82" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2915,19 +2915,19 @@
       <c r="B83" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C83" s="2" t="n">
+      <c r="C83" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D83" s="2" t="n">
+      <c r="D83" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E83" s="2" t="n">
+      <c r="E83" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F83" s="2" t="n">
+      <c r="F83" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G83" s="2" t="n">
+      <c r="G83" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2938,19 +2938,19 @@
       <c r="B84" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C84" s="2" t="n">
+      <c r="C84" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="D84" s="2" t="n">
+      <c r="D84" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="E84" s="2" t="n">
+      <c r="E84" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="F84" s="2" t="n">
+      <c r="F84" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="G84" s="2" t="n">
+      <c r="G84" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2961,19 +2961,19 @@
       <c r="B85" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C85" s="2" t="n">
+      <c r="C85" s="0" t="n">
         <v>135</v>
       </c>
-      <c r="D85" s="2" t="n">
+      <c r="D85" s="0" t="n">
         <v>135</v>
       </c>
-      <c r="E85" s="2" t="n">
+      <c r="E85" s="0" t="n">
         <v>149</v>
       </c>
-      <c r="F85" s="2" t="n">
+      <c r="F85" s="0" t="n">
         <v>160</v>
       </c>
-      <c r="G85" s="2" t="n">
+      <c r="G85" s="0" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2984,19 +2984,19 @@
       <c r="B86" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C86" s="2" t="n">
+      <c r="C86" s="0" t="n">
         <v>427</v>
       </c>
-      <c r="D86" s="2" t="n">
+      <c r="D86" s="0" t="n">
         <v>428</v>
       </c>
-      <c r="E86" s="2" t="n">
+      <c r="E86" s="0" t="n">
         <v>431</v>
       </c>
-      <c r="F86" s="2" t="n">
+      <c r="F86" s="0" t="n">
         <v>600</v>
       </c>
-      <c r="G86" s="2" t="n">
+      <c r="G86" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3007,19 +3007,19 @@
       <c r="B87" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C87" s="2" t="n">
+      <c r="C87" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D87" s="2" t="n">
+      <c r="D87" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E87" s="2" t="n">
+      <c r="E87" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F87" s="2" t="n">
+      <c r="F87" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G87" s="2" t="n">
+      <c r="G87" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3030,19 +3030,19 @@
       <c r="B88" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C88" s="2" t="n">
+      <c r="C88" s="0" t="n">
         <v>174</v>
       </c>
-      <c r="D88" s="2" t="n">
+      <c r="D88" s="0" t="n">
         <v>193</v>
       </c>
-      <c r="E88" s="2" t="n">
+      <c r="E88" s="0" t="n">
         <v>254</v>
       </c>
-      <c r="F88" s="2" t="n">
+      <c r="F88" s="0" t="n">
         <v>315</v>
       </c>
-      <c r="G88" s="2" t="n">
+      <c r="G88" s="0" t="n">
         <v>7</v>
       </c>
     </row>
@@ -3053,19 +3053,19 @@
       <c r="B89" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C89" s="2" t="n">
+      <c r="C89" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D89" s="2" t="n">
+      <c r="D89" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E89" s="2" t="n">
+      <c r="E89" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F89" s="2" t="n">
+      <c r="F89" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G89" s="2" t="n">
+      <c r="G89" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3076,19 +3076,19 @@
       <c r="B90" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C90" s="2" t="n">
+      <c r="C90" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="D90" s="2" t="n">
+      <c r="D90" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="E90" s="2" t="n">
+      <c r="E90" s="0" t="n">
         <v>80</v>
       </c>
-      <c r="F90" s="2" t="n">
+      <c r="F90" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="G90" s="2" t="n">
+      <c r="G90" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3099,19 +3099,19 @@
       <c r="B91" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C91" s="2" t="n">
+      <c r="C91" s="0" t="n">
         <v>76</v>
       </c>
-      <c r="D91" s="2" t="n">
+      <c r="D91" s="0" t="n">
         <v>79</v>
       </c>
-      <c r="E91" s="2" t="n">
+      <c r="E91" s="0" t="n">
         <v>81</v>
       </c>
-      <c r="F91" s="2" t="n">
+      <c r="F91" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="G91" s="2" t="n">
+      <c r="G91" s="0" t="n">
         <v>8</v>
       </c>
     </row>
@@ -3122,19 +3122,19 @@
       <c r="B92" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C92" s="2" t="n">
+      <c r="C92" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="D92" s="2" t="n">
+      <c r="D92" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E92" s="2" t="n">
+      <c r="E92" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="F92" s="2" t="n">
+      <c r="F92" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G92" s="2" t="n">
+      <c r="G92" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3145,19 +3145,19 @@
       <c r="B93" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C93" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E93" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F93" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G93" s="2" t="n">
+      <c r="C93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G93" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3168,19 +3168,19 @@
       <c r="B94" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C94" s="2" t="n">
+      <c r="C94" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D94" s="2" t="n">
+      <c r="D94" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E94" s="2" t="n">
+      <c r="E94" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F94" s="2" t="n">
+      <c r="F94" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G94" s="2" t="n">
+      <c r="G94" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3191,19 +3191,19 @@
       <c r="B95" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C95" s="2" t="n">
+      <c r="C95" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="D95" s="2" t="n">
+      <c r="D95" s="0" t="n">
         <v>104</v>
       </c>
-      <c r="E95" s="2" t="n">
+      <c r="E95" s="0" t="n">
         <v>105</v>
       </c>
-      <c r="F95" s="2" t="n">
+      <c r="F95" s="0" t="n">
         <v>114</v>
       </c>
-      <c r="G95" s="2" t="n">
+      <c r="G95" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3214,19 +3214,19 @@
       <c r="B96" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C96" s="2" t="n">
+      <c r="C96" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="D96" s="2" t="n">
+      <c r="D96" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="E96" s="2" t="n">
+      <c r="E96" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="F96" s="2" t="n">
+      <c r="F96" s="0" t="n">
         <v>39</v>
       </c>
-      <c r="G96" s="2" t="n">
+      <c r="G96" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3237,19 +3237,19 @@
       <c r="B97" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C97" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" s="2" t="n">
+      <c r="C97" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D97" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="E97" s="2" t="n">
+      <c r="E97" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="F97" s="2" t="n">
+      <c r="F97" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="G97" s="2" t="n">
+      <c r="G97" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3260,19 +3260,19 @@
       <c r="B98" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C98" s="2" t="n">
+      <c r="C98" s="0" t="n">
         <v>109</v>
       </c>
-      <c r="D98" s="2" t="n">
+      <c r="D98" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="E98" s="2" t="n">
+      <c r="E98" s="0" t="n">
         <v>120</v>
       </c>
-      <c r="F98" s="2" t="n">
+      <c r="F98" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="G98" s="2" t="n">
+      <c r="G98" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3283,19 +3283,19 @@
       <c r="B99" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C99" s="2" t="n">
+      <c r="C99" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D99" s="2" t="n">
+      <c r="D99" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E99" s="2" t="n">
+      <c r="E99" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="F99" s="2" t="n">
+      <c r="F99" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="G99" s="2" t="n">
+      <c r="G99" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3306,19 +3306,19 @@
       <c r="B100" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C100" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E100" s="2" t="n">
+      <c r="C100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D100" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E100" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F100" s="2" t="n">
+      <c r="F100" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G100" s="2" t="n">
+      <c r="G100" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3329,19 +3329,19 @@
       <c r="B101" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C101" s="2" t="n">
+      <c r="C101" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D101" s="2" t="n">
+      <c r="D101" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E101" s="2" t="n">
+      <c r="E101" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F101" s="2" t="n">
+      <c r="F101" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G101" s="2" t="n">
+      <c r="G101" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3352,19 +3352,19 @@
       <c r="B102" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="C102" s="2" t="n">
+      <c r="C102" s="0" t="n">
         <v>127</v>
       </c>
-      <c r="D102" s="2" t="n">
+      <c r="D102" s="0" t="n">
         <v>160</v>
       </c>
-      <c r="E102" s="2" t="n">
+      <c r="E102" s="0" t="n">
         <v>168</v>
       </c>
-      <c r="F102" s="2" t="n">
+      <c r="F102" s="0" t="n">
         <v>207</v>
       </c>
-      <c r="G102" s="2" t="n">
+      <c r="G102" s="0" t="n">
         <v>11</v>
       </c>
     </row>
@@ -3375,19 +3375,19 @@
       <c r="B103" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C103" s="2" t="n">
+      <c r="C103" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="D103" s="2" t="n">
+      <c r="D103" s="0" t="n">
         <v>83</v>
       </c>
-      <c r="E103" s="2" t="n">
+      <c r="E103" s="0" t="n">
         <v>85</v>
       </c>
-      <c r="F103" s="2" t="n">
+      <c r="F103" s="0" t="n">
         <v>124</v>
       </c>
-      <c r="G103" s="2" t="n">
+      <c r="G103" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3398,19 +3398,19 @@
       <c r="B104" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C104" s="2" t="n">
+      <c r="C104" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D104" s="2" t="n">
+      <c r="D104" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E104" s="2" t="n">
+      <c r="E104" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="F104" s="2" t="n">
+      <c r="F104" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="G104" s="2" t="n">
+      <c r="G104" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3421,19 +3421,19 @@
       <c r="B105" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C105" s="2" t="n">
+      <c r="C105" s="0" t="n">
         <v>119</v>
       </c>
-      <c r="D105" s="2" t="n">
+      <c r="D105" s="0" t="n">
         <v>126</v>
       </c>
-      <c r="E105" s="2" t="n">
+      <c r="E105" s="0" t="n">
         <v>139</v>
       </c>
-      <c r="F105" s="2" t="n">
+      <c r="F105" s="0" t="n">
         <v>166</v>
       </c>
-      <c r="G105" s="2" t="n">
+      <c r="G105" s="0" t="n">
         <v>15</v>
       </c>
     </row>
@@ -3444,19 +3444,19 @@
       <c r="B106" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C106" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D106" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E106" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F106" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G106" s="2" t="n">
+      <c r="C106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G106" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3467,19 +3467,19 @@
       <c r="B107" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C107" s="2" t="n">
+      <c r="C107" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="D107" s="2" t="n">
+      <c r="D107" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="E107" s="2" t="n">
+      <c r="E107" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="F107" s="2" t="n">
+      <c r="F107" s="0" t="n">
         <v>45</v>
       </c>
-      <c r="G107" s="2" t="n">
+      <c r="G107" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3490,19 +3490,19 @@
       <c r="B108" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C108" s="2" t="n">
+      <c r="C108" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="D108" s="2" t="n">
+      <c r="D108" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="E108" s="2" t="n">
+      <c r="E108" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="F108" s="2" t="n">
+      <c r="F108" s="0" t="n">
         <v>44</v>
       </c>
-      <c r="G108" s="2" t="n">
+      <c r="G108" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3513,19 +3513,19 @@
       <c r="B109" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="C109" s="2" t="n">
+      <c r="C109" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D109" s="2" t="n">
+      <c r="D109" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E109" s="2" t="n">
+      <c r="E109" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="F109" s="2" t="n">
+      <c r="F109" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="G109" s="2" t="n">
+      <c r="G109" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3536,19 +3536,19 @@
       <c r="B110" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C110" s="2" t="n">
+      <c r="C110" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="D110" s="2" t="n">
+      <c r="D110" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="E110" s="2" t="n">
+      <c r="E110" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="F110" s="2" t="n">
+      <c r="F110" s="0" t="n">
         <v>101</v>
       </c>
-      <c r="G110" s="2" t="n">
+      <c r="G110" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,19 +3559,19 @@
       <c r="B111" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C111" s="2" t="n">
+      <c r="C111" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="D111" s="2" t="n">
+      <c r="D111" s="0" t="n">
         <v>328</v>
       </c>
-      <c r="E111" s="2" t="n">
+      <c r="E111" s="0" t="n">
         <v>429</v>
       </c>
-      <c r="F111" s="2" t="n">
+      <c r="F111" s="0" t="n">
         <v>430</v>
       </c>
-      <c r="G111" s="2" t="n">
+      <c r="G111" s="0" t="n">
         <v>10</v>
       </c>
     </row>
@@ -3582,19 +3582,19 @@
       <c r="B112" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C112" s="2" t="n">
+      <c r="C112" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="D112" s="2" t="n">
+      <c r="D112" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="E112" s="2" t="n">
+      <c r="E112" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="F112" s="2" t="n">
+      <c r="F112" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="G112" s="2" t="n">
+      <c r="G112" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -3605,19 +3605,19 @@
       <c r="B113" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C113" s="2" t="n">
+      <c r="C113" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D113" s="2" t="n">
+      <c r="D113" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E113" s="2" t="n">
+      <c r="E113" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="F113" s="2" t="n">
+      <c r="F113" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G113" s="2" t="n">
+      <c r="G113" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3628,19 +3628,19 @@
       <c r="B114" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C114" s="2" t="n">
+      <c r="C114" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="D114" s="2" t="n">
+      <c r="D114" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="E114" s="2" t="n">
+      <c r="E114" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="F114" s="2" t="n">
+      <c r="F114" s="0" t="n">
         <v>67</v>
       </c>
-      <c r="G114" s="2" t="n">
+      <c r="G114" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3651,19 +3651,19 @@
       <c r="B115" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C115" s="2" t="n">
+      <c r="C115" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D115" s="2" t="n">
+      <c r="D115" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E115" s="2" t="n">
+      <c r="E115" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F115" s="2" t="n">
+      <c r="F115" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="G115" s="2" t="n">
+      <c r="G115" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3674,19 +3674,19 @@
       <c r="B116" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C116" s="2" t="n">
+      <c r="C116" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D116" s="2" t="n">
+      <c r="D116" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E116" s="2" t="n">
+      <c r="E116" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="F116" s="2" t="n">
+      <c r="F116" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="G116" s="2" t="n">
+      <c r="G116" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -3697,19 +3697,19 @@
       <c r="B117" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="C117" s="2" t="n">
+      <c r="C117" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D117" s="2" t="n">
+      <c r="D117" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E117" s="2" t="n">
+      <c r="E117" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F117" s="2" t="n">
+      <c r="F117" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="G117" s="2" t="n">
+      <c r="G117" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3720,19 +3720,19 @@
       <c r="B118" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C118" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D118" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E118" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F118" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G118" s="2" t="n">
+      <c r="C118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G118" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3743,19 +3743,19 @@
       <c r="B119" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C119" s="2" t="n">
+      <c r="C119" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="D119" s="2" t="n">
+      <c r="D119" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E119" s="2" t="n">
+      <c r="E119" s="0" t="n">
         <v>94</v>
       </c>
-      <c r="F119" s="2" t="n">
+      <c r="F119" s="0" t="n">
         <v>97</v>
       </c>
-      <c r="G119" s="2" t="n">
+      <c r="G119" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3766,19 +3766,19 @@
       <c r="B120" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="C120" s="2" t="n">
+      <c r="C120" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="D120" s="2" t="n">
+      <c r="D120" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E120" s="2" t="n">
+      <c r="E120" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="F120" s="2" t="n">
+      <c r="F120" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="G120" s="2" t="n">
+      <c r="G120" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3789,19 +3789,19 @@
       <c r="B121" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C121" s="2" t="n">
+      <c r="C121" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="D121" s="2" t="n">
+      <c r="D121" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E121" s="2" t="n">
+      <c r="E121" s="0" t="n">
         <v>33</v>
       </c>
-      <c r="F121" s="2" t="n">
+      <c r="F121" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="G121" s="2" t="n">
+      <c r="G121" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3812,19 +3812,19 @@
       <c r="B122" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="C122" s="2" t="n">
+      <c r="C122" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="D122" s="2" t="n">
+      <c r="D122" s="0" t="n">
         <v>1</v>
       </c>
-      <c r="E122" s="2" t="n">
+      <c r="E122" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="F122" s="2" t="n">
+      <c r="F122" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="G122" s="2" t="n">
+      <c r="G122" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3833,13 +3833,13 @@
         <v>246</v>
       </c>
       <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
-      <c r="D123" s="4"/>
-      <c r="E123" s="4"/>
-      <c r="F123" s="2" t="n">
+      <c r="C123" s="0"/>
+      <c r="D123" s="0"/>
+      <c r="E123" s="0"/>
+      <c r="F123" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="G123" s="4"/>
+      <c r="G123" s="0"/>
     </row>
     <row r="124" s="3" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="2" t="s">
@@ -3848,19 +3848,19 @@
       <c r="B124" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C124" s="2" t="n">
+      <c r="C124" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="D124" s="2" t="n">
+      <c r="D124" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="E124" s="2" t="n">
+      <c r="E124" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="F124" s="2" t="n">
+      <c r="F124" s="0" t="n">
         <v>132</v>
       </c>
-      <c r="G124" s="2" t="n">
+      <c r="G124" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -3871,15 +3871,15 @@
       <c r="B125" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C125" s="4"/>
-      <c r="D125" s="4"/>
-      <c r="E125" s="2" t="n">
+      <c r="C125" s="0"/>
+      <c r="D125" s="0"/>
+      <c r="E125" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="F125" s="2" t="n">
+      <c r="F125" s="0" t="n">
         <v>43</v>
       </c>
-      <c r="G125" s="2" t="n">
+      <c r="G125" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3890,19 +3890,19 @@
       <c r="B126" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C126" s="2" t="n">
+      <c r="C126" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="D126" s="2" t="n">
+      <c r="D126" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="E126" s="2" t="n">
+      <c r="E126" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="F126" s="2" t="n">
+      <c r="F126" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="G126" s="2" t="n">
+      <c r="G126" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,19 +3913,19 @@
       <c r="B127" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C127" s="2" t="n">
+      <c r="C127" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="D127" s="2" t="n">
+      <c r="D127" s="0" t="n">
         <v>224</v>
       </c>
-      <c r="E127" s="2" t="n">
+      <c r="E127" s="0" t="n">
         <v>262</v>
       </c>
-      <c r="F127" s="2" t="n">
+      <c r="F127" s="0" t="n">
         <v>164</v>
       </c>
-      <c r="G127" s="2" t="n">
+      <c r="G127" s="0" t="n">
         <v>2</v>
       </c>
     </row>
@@ -3936,19 +3936,19 @@
       <c r="B128" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="C128" s="2" t="n">
+      <c r="C128" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="D128" s="2" t="n">
+      <c r="D128" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E128" s="2" t="n">
+      <c r="E128" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="F128" s="2" t="n">
+      <c r="F128" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="G128" s="2" t="n">
+      <c r="G128" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3959,19 +3959,19 @@
       <c r="B129" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="C129" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D129" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E129" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F129" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G129" s="2" t="n">
+      <c r="C129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G129" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3982,19 +3982,19 @@
       <c r="B130" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C130" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D130" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E130" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F130" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G130" s="2" t="n">
+      <c r="C130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G130" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4005,19 +4005,19 @@
       <c r="B131" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="C131" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D131" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E131" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F131" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G131" s="2" t="n">
+      <c r="C131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F131" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G131" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4028,19 +4028,19 @@
       <c r="B132" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="C132" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D132" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E132" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F132" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G132" s="2" t="n">
+      <c r="C132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F132" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G132" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4051,19 +4051,19 @@
       <c r="B133" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C133" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D133" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E133" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F133" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G133" s="2" t="n">
+      <c r="C133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F133" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G133" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4074,19 +4074,19 @@
       <c r="B134" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="C134" s="2" t="n">
+      <c r="C134" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="D134" s="2" t="n">
+      <c r="D134" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E134" s="2" t="n">
+      <c r="E134" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="F134" s="2" t="n">
+      <c r="F134" s="0" t="n">
         <v>28</v>
       </c>
-      <c r="G134" s="2" t="n">
+      <c r="G134" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4097,19 +4097,19 @@
       <c r="B135" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C135" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D135" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E135" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F135" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G135" s="2" t="n">
+      <c r="C135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F135" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G135" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4120,19 +4120,19 @@
       <c r="B136" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="C136" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D136" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E136" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F136" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G136" s="2" t="n">
+      <c r="C136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F136" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G136" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4143,19 +4143,19 @@
       <c r="B137" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="C137" s="2" t="n">
+      <c r="C137" s="0" t="n">
         <v>40</v>
       </c>
-      <c r="D137" s="2" t="n">
+      <c r="D137" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="E137" s="2" t="n">
+      <c r="E137" s="0" t="n">
         <v>42</v>
       </c>
-      <c r="F137" s="2" t="n">
+      <c r="F137" s="0" t="n">
         <v>46</v>
       </c>
-      <c r="G137" s="2" t="n">
+      <c r="G137" s="0" t="n">
         <v>4</v>
       </c>
     </row>
@@ -4166,19 +4166,19 @@
       <c r="B138" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C138" s="2" t="n">
+      <c r="C138" s="0" t="n">
         <v>130</v>
       </c>
-      <c r="D138" s="2" t="n">
+      <c r="D138" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="E138" s="2" t="n">
+      <c r="E138" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="F138" s="2" t="n">
+      <c r="F138" s="0" t="n">
         <v>134</v>
       </c>
-      <c r="G138" s="2" t="n">
+      <c r="G138" s="0" t="n">
         <v>6</v>
       </c>
     </row>
@@ -4189,19 +4189,19 @@
       <c r="B139" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="C139" s="2" t="n">
+      <c r="C139" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="D139" s="2" t="n">
+      <c r="D139" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E139" s="2" t="n">
+      <c r="E139" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="F139" s="2" t="n">
+      <c r="F139" s="0" t="n">
         <v>38</v>
       </c>
-      <c r="G139" s="2" t="n">
+      <c r="G139" s="0" t="n">
         <v>3</v>
       </c>
     </row>
@@ -4212,19 +4212,19 @@
       <c r="B140" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C140" s="2" t="n">
+      <c r="C140" s="0" t="n">
         <v>342</v>
       </c>
-      <c r="D140" s="2" t="n">
+      <c r="D140" s="0" t="n">
         <v>342</v>
       </c>
-      <c r="E140" s="2" t="n">
+      <c r="E140" s="0" t="n">
         <v>343</v>
       </c>
-      <c r="F140" s="2" t="n">
+      <c r="F140" s="0" t="n">
         <v>638</v>
       </c>
-      <c r="G140" s="2" t="n">
+      <c r="G140" s="0" t="n">
         <v>5</v>
       </c>
     </row>
@@ -4235,19 +4235,19 @@
       <c r="B141" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="C141" s="2" t="n">
+      <c r="C141" s="0" t="n">
         <v>54</v>
       </c>
-      <c r="D141" s="2" t="n">
+      <c r="D141" s="0" t="n">
         <v>178</v>
       </c>
-      <c r="E141" s="2" t="n">
+      <c r="E141" s="0" t="n">
         <v>330</v>
       </c>
-      <c r="F141" s="2" t="n">
+      <c r="F141" s="0" t="n">
         <v>338</v>
       </c>
-      <c r="G141" s="2" t="n">
+      <c r="G141" s="0" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4258,19 +4258,19 @@
       <c r="B142" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="C142" s="2" t="n">
+      <c r="C142" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="D142" s="2" t="n">
+      <c r="D142" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E142" s="2" t="n">
+      <c r="E142" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="F142" s="2" t="n">
+      <c r="F142" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="G142" s="2" t="n">
+      <c r="G142" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4281,19 +4281,19 @@
       <c r="B143" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C143" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D143" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E143" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F143" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G143" s="2" t="n">
+      <c r="C143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F143" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G143" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4304,19 +4304,19 @@
       <c r="B144" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="C144" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D144" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E144" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F144" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G144" s="2" t="n">
+      <c r="C144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F144" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G144" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4327,19 +4327,19 @@
       <c r="B145" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C145" s="2" t="n">
+      <c r="C145" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="D145" s="2" t="n">
+      <c r="D145" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="E145" s="2" t="n">
+      <c r="E145" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="F145" s="2" t="n">
+      <c r="F145" s="0" t="n">
         <v>37</v>
       </c>
-      <c r="G145" s="2" t="n">
+      <c r="G145" s="0" t="n">
         <v>0</v>
       </c>
     </row>
